--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,9 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +172,46 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_GetSeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章标识或名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章标识或名称长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -557,21 +590,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -591,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -608,10 +641,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -622,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -636,10 +669,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -650,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -664,13 +697,14 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -678,13 +712,14 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -692,13 +727,14 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -706,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -726,13 +762,14 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -740,13 +777,14 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -754,13 +792,14 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -768,14 +807,15 @@
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
@@ -783,14 +823,15 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -798,14 +839,15 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -813,14 +855,15 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,10 +871,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -849,14 +892,15 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,21 +908,112 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="115">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,13 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OES_GetSeal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +197,264 @@
   </si>
   <si>
     <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_GetSealImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char*</t>
+  </si>
+  <si>
+    <t>绘制用途标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章图像数据</t>
+  </si>
+  <si>
+    <t>印章图像数据长度</t>
+  </si>
+  <si>
+    <t>印章宽度</t>
+  </si>
+  <si>
+    <t>印章高度</t>
+  </si>
+  <si>
+    <t>OES_GetSealInfo</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned char*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头信息-印章标识</t>
+  </si>
+  <si>
+    <t>头信息-印章标识长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头信息-版本</t>
+  </si>
+  <si>
+    <t>头信息-版本数据长度</t>
+  </si>
+  <si>
+    <t>头信息-厂商标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头信息-厂商标识长度</t>
+  </si>
+  <si>
+    <t>印章信息-印章类型</t>
+  </si>
+  <si>
+    <t>印章信息-印章类型长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章信息-印章名称</t>
+  </si>
+  <si>
+    <t>印章信息-印章名称长度</t>
+  </si>
+  <si>
+    <t>印章信息-证书列表信息</t>
+  </si>
+  <si>
+    <t>印章信息-证书列表信息长度</t>
+  </si>
+  <si>
+    <t>印章信息-有效起始时间</t>
+  </si>
+  <si>
+    <t>印章信息-有效起始时间长度</t>
+  </si>
+  <si>
+    <t>印章信息-有效结束时间</t>
+  </si>
+  <si>
+    <t>印章信息-制作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章信息-制作日期长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名信息-制章人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章信息-有效结束长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名信息-制章人长度</t>
+  </si>
+  <si>
+    <t>签名信息-制章签名方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名信息-制章签名方法长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_GetSignDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名时间</t>
+  </si>
+  <si>
+    <t>签名时间长度</t>
+  </si>
+  <si>
+    <t>OES_GetSignMethod</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名算法长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_GetDigestMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要算法长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_Digest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待摘要的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待摘要的数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要值长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_Sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章标识</t>
+  </si>
+  <si>
+    <t>印章标识长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档信息长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要数据</t>
+  </si>
+  <si>
+    <t>摘要数据长度</t>
+  </si>
+  <si>
+    <t>签名时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名时间长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名值长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在线验证</t>
+  </si>
+  <si>
+    <t>OES_GetErrMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OES_GetSignImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签章数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签章数据长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,20 +791,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -576,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -590,21 +833,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -631,8 +874,8 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -641,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -655,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -669,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -683,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -697,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -712,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -727,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -742,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
@@ -750,10 +993,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -762,11 +1005,12 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
@@ -777,45 +1021,49 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
@@ -823,15 +1071,13 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -839,180 +1085,1165 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="2"/>
+      <c r="C76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="1" t="s">
+      <c r="E88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>46</v>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,14 @@
   </si>
   <si>
     <t>签章数据长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,7 +1661,7 @@
         <v>46</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>88</v>
@@ -1667,7 +1675,7 @@
         <v>53</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>89</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OESTest_001" sheetId="1" r:id="rId1"/>
+    <sheet name="OESTest_002" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="117">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E56" sqref="A1:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2259,4 +2260,1616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="OESTest_001" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="122">
   <si>
     <t>动态库名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,26 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是否Base64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量保存和使用输出结果（保存out参数，in参数使用该值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H:\git\ak-client-gov\bin\Release</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +539,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E56" sqref="A1:F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,10 +837,12 @@
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,12 +856,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -845,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -859,27 +884,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +929,12 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -912,8 +947,12 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -926,8 +965,12 @@
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
@@ -940,8 +983,12 @@
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -954,8 +1001,12 @@
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -969,8 +1020,12 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -984,8 +1039,12 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -999,13 +1058,17 @@
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1019,9 +1082,12 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1035,9 +1101,12 @@
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1056,9 +1125,12 @@
       <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1071,8 +1143,12 @@
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,8 +1161,12 @@
       <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1099,8 +1179,12 @@
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1119,8 +1203,12 @@
       <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1133,8 +1221,12 @@
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1147,8 +1239,12 @@
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1161,8 +1257,12 @@
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1275,12 @@
       <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1189,8 +1293,12 @@
       <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1203,8 +1311,12 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,8 +1335,12 @@
       <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1237,8 +1353,12 @@
       <c r="F27" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1251,8 +1371,12 @@
       <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1265,8 +1389,12 @@
       <c r="F29" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1407,12 @@
       <c r="F30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,8 +1425,12 @@
       <c r="F31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,8 +1443,12 @@
       <c r="F32" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1321,8 +1461,12 @@
       <c r="F33" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,8 +1479,12 @@
       <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,8 +1497,12 @@
       <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,8 +1515,12 @@
       <c r="F36" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,8 +1533,12 @@
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1391,8 +1551,12 @@
       <c r="F38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1405,8 +1569,12 @@
       <c r="F39" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1419,8 +1587,12 @@
       <c r="F40" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1605,12 @@
       <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,8 +1623,12 @@
       <c r="F42" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1461,8 +1641,12 @@
       <c r="F43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1475,8 +1659,12 @@
       <c r="F44" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1489,8 +1677,12 @@
       <c r="F45" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
         <v>13</v>
       </c>
@@ -1503,8 +1695,12 @@
       <c r="F46" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1713,12 @@
       <c r="F47" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1731,12 @@
       <c r="F48" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,8 +1749,12 @@
       <c r="F49" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -1565,8 +1773,12 @@
       <c r="F50" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,8 +1791,12 @@
       <c r="F51" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -1599,8 +1815,12 @@
       <c r="F52" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,8 +1833,12 @@
       <c r="F53" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -1633,8 +1857,12 @@
       <c r="F54" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,8 +1875,12 @@
       <c r="F55" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -1667,8 +1899,12 @@
       <c r="F56" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
         <v>45</v>
       </c>
@@ -1681,8 +1917,12 @@
       <c r="F57" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>45</v>
@@ -1696,8 +1936,12 @@
       <c r="F58" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C59" s="1" t="s">
         <v>45</v>
       </c>
@@ -1710,8 +1954,12 @@
       <c r="F59" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1724,8 +1972,12 @@
       <c r="F60" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
@@ -1738,8 +1990,12 @@
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
@@ -1758,8 +2014,12 @@
       <c r="F62" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1772,8 +2032,12 @@
       <c r="F63" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
         <v>45</v>
@@ -1787,8 +2051,12 @@
       <c r="F64" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
         <v>45</v>
       </c>
@@ -1801,8 +2069,12 @@
       <c r="F65" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
         <v>45</v>
       </c>
@@ -1815,8 +2087,12 @@
       <c r="F66" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C67" s="1" t="s">
         <v>45</v>
       </c>
@@ -1829,8 +2105,12 @@
       <c r="F67" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C68" s="1" t="s">
         <v>45</v>
       </c>
@@ -1843,8 +2123,12 @@
       <c r="F68" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
         <v>45</v>
       </c>
@@ -1857,8 +2141,12 @@
       <c r="F69" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C70" s="1" t="s">
         <v>45</v>
       </c>
@@ -1871,8 +2159,12 @@
       <c r="F70" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C71" s="1" t="s">
         <v>45</v>
       </c>
@@ -1885,8 +2177,12 @@
       <c r="F71" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
         <v>13</v>
       </c>
@@ -1899,8 +2195,12 @@
       <c r="F72" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
         <v>14</v>
       </c>
@@ -1913,8 +2213,12 @@
       <c r="F73" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -1933,8 +2237,12 @@
       <c r="F74" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
         <v>45</v>
       </c>
@@ -1947,8 +2255,12 @@
       <c r="F75" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
         <v>45</v>
@@ -1962,8 +2274,12 @@
       <c r="F76" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C77" s="1" t="s">
         <v>45</v>
       </c>
@@ -1976,8 +2292,12 @@
       <c r="F77" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C78" s="1" t="s">
         <v>45</v>
       </c>
@@ -1990,8 +2310,12 @@
       <c r="F78" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C79" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2328,12 @@
       <c r="F79" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
         <v>45</v>
       </c>
@@ -2018,8 +2346,12 @@
       <c r="F80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C81" s="1" t="s">
         <v>45</v>
       </c>
@@ -2032,8 +2364,12 @@
       <c r="F81" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C82" s="1" t="s">
         <v>45</v>
       </c>
@@ -2046,8 +2382,12 @@
       <c r="F82" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C83" s="1" t="s">
         <v>45</v>
       </c>
@@ -2060,8 +2400,12 @@
       <c r="F83" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C84" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,8 +2418,12 @@
       <c r="F84" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
         <v>45</v>
       </c>
@@ -2088,8 +2436,12 @@
       <c r="F85" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C86" s="1" t="s">
         <v>45</v>
       </c>
@@ -2102,8 +2454,12 @@
       <c r="F86" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -2122,8 +2478,12 @@
       <c r="F87" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C88" s="1" t="s">
         <v>45</v>
       </c>
@@ -2136,8 +2496,12 @@
       <c r="F88" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C89" s="1" t="s">
         <v>45</v>
       </c>
@@ -2150,8 +2514,12 @@
       <c r="F89" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
         <v>13</v>
       </c>
@@ -2164,8 +2532,12 @@
       <c r="F90" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C91" s="1" t="s">
         <v>14</v>
       </c>
@@ -2178,8 +2550,12 @@
       <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C92" s="1" t="s">
         <v>14</v>
       </c>
@@ -2192,8 +2568,12 @@
       <c r="F92" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C93" s="1" t="s">
         <v>14</v>
       </c>
@@ -2206,8 +2586,12 @@
       <c r="F93" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -2226,8 +2610,12 @@
       <c r="F94" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C95" s="1" t="s">
         <v>13</v>
       </c>
@@ -2240,8 +2628,12 @@
       <c r="F95" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C96" s="1" t="s">
         <v>14</v>
       </c>
@@ -2254,6 +2646,10 @@
       <c r="F96" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2264,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2276,7 +2672,7 @@
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2688,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2704,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2324,27 +2720,33 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2363,8 +2765,11 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -2379,8 +2784,11 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -2395,8 +2803,11 @@
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -2411,8 +2822,11 @@
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -2427,8 +2841,11 @@
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
@@ -2443,8 +2860,11 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
@@ -2459,8 +2879,11 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
@@ -2475,8 +2898,11 @@
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2495,8 +2921,11 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -2511,8 +2940,11 @@
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,8 +2963,11 @@
       <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -2547,8 +2982,11 @@
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -2563,8 +3001,11 @@
       <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -2579,8 +3020,11 @@
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2599,8 +3043,11 @@
       <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -2615,8 +3062,11 @@
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -2631,8 +3081,11 @@
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -2647,8 +3100,11 @@
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2663,8 +3119,11 @@
       <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -2679,8 +3138,11 @@
       <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -2695,8 +3157,11 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2715,8 +3180,11 @@
       <c r="F26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -2731,8 +3199,11 @@
       <c r="F27" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -2747,8 +3218,11 @@
       <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -2763,8 +3237,11 @@
       <c r="F29" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -2779,8 +3256,11 @@
       <c r="F30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -2795,8 +3275,11 @@
       <c r="F31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -2811,8 +3294,11 @@
       <c r="F32" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -2827,8 +3313,11 @@
       <c r="F33" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -2843,8 +3332,11 @@
       <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -2859,8 +3351,11 @@
       <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -2875,8 +3370,11 @@
       <c r="F36" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -2891,8 +3389,11 @@
       <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
@@ -2907,8 +3408,11 @@
       <c r="F38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -2923,8 +3427,11 @@
       <c r="F39" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -2939,8 +3446,11 @@
       <c r="F40" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -2955,8 +3465,11 @@
       <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
@@ -2971,8 +3484,11 @@
       <c r="F42" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -2987,8 +3503,11 @@
       <c r="F43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -3003,8 +3522,11 @@
       <c r="F44" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -3019,8 +3541,11 @@
       <c r="F45" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -3035,8 +3560,11 @@
       <c r="F46" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -3051,8 +3579,11 @@
       <c r="F47" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
@@ -3067,8 +3598,11 @@
       <c r="F48" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -3083,8 +3617,11 @@
       <c r="F49" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3103,8 +3640,11 @@
       <c r="F50" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -3119,8 +3659,11 @@
       <c r="F51" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -3139,8 +3682,11 @@
       <c r="F52" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
@@ -3155,8 +3701,11 @@
       <c r="F53" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -3175,8 +3724,11 @@
       <c r="F54" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -3191,8 +3743,11 @@
       <c r="F55" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -3211,8 +3766,11 @@
       <c r="F56" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
@@ -3227,8 +3785,11 @@
       <c r="F57" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
@@ -3243,8 +3804,11 @@
       <c r="F58" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -3259,8 +3823,11 @@
       <c r="F59" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -3275,8 +3842,11 @@
       <c r="F60" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
@@ -3291,8 +3861,11 @@
       <c r="F61" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>92</v>
       </c>
@@ -3311,8 +3884,11 @@
       <c r="F62" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
@@ -3327,8 +3903,11 @@
       <c r="F63" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
@@ -3343,8 +3922,11 @@
       <c r="F64" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
@@ -3359,8 +3941,11 @@
       <c r="F65" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
@@ -3375,8 +3960,11 @@
       <c r="F66" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -3391,8 +3979,11 @@
       <c r="F67" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
@@ -3407,8 +3998,11 @@
       <c r="F68" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
@@ -3423,8 +4017,11 @@
       <c r="F69" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
@@ -3439,8 +4036,11 @@
       <c r="F70" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
@@ -3455,8 +4055,11 @@
       <c r="F71" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
@@ -3471,8 +4074,11 @@
       <c r="F72" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
@@ -3487,8 +4093,11 @@
       <c r="F73" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -3507,8 +4116,11 @@
       <c r="F74" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
@@ -3523,8 +4135,11 @@
       <c r="F75" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
@@ -3539,8 +4154,11 @@
       <c r="F76" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
@@ -3555,8 +4173,11 @@
       <c r="F77" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
@@ -3571,8 +4192,11 @@
       <c r="F78" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
@@ -3587,8 +4211,11 @@
       <c r="F79" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
@@ -3603,8 +4230,11 @@
       <c r="F80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
@@ -3619,8 +4249,11 @@
       <c r="F81" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
@@ -3635,8 +4268,11 @@
       <c r="F82" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
@@ -3651,8 +4287,11 @@
       <c r="F83" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
@@ -3667,8 +4306,11 @@
       <c r="F84" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
@@ -3683,8 +4325,11 @@
       <c r="F85" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
@@ -3699,8 +4344,11 @@
       <c r="F86" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -3719,8 +4367,11 @@
       <c r="F87" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
@@ -3735,8 +4386,11 @@
       <c r="F88" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
@@ -3751,8 +4405,11 @@
       <c r="F89" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
@@ -3767,8 +4424,11 @@
       <c r="F90" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
@@ -3783,8 +4443,11 @@
       <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
@@ -3799,8 +4462,11 @@
       <c r="F92" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
@@ -3815,8 +4481,11 @@
       <c r="F93" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -3835,8 +4504,11 @@
       <c r="F94" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
@@ -3851,8 +4523,11 @@
       <c r="F95" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
@@ -3867,9 +4542,13 @@
       <c r="F96" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG_ReadCaKeyInfo" sheetId="3" r:id="rId1"/>
+    <sheet name="TG_ReadCaSignInfo" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>动态库所在路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>cdecl</t>
-  </si>
-  <si>
-    <t>cdecl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,6 +142,34 @@
   </si>
   <si>
     <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSealCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG_ReadCaSignInfo.dll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialSession</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -498,11 +520,12 @@
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="8" max="8" width="35.25" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -518,15 +541,15 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -536,11 +559,11 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -550,12 +573,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -570,142 +593,313 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="TG_ReadCaKeyInfo" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>动态库所在路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,26 @@
   </si>
   <si>
     <t>InitialSession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wchar_t*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -521,9 +541,10 @@
     <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="8" max="8" width="35.25" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -541,7 +562,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -559,7 +580,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -573,9 +594,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+    <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -601,8 +622,11 @@
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -638,8 +665,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -661,8 +691,11 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -684,8 +717,11 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
@@ -704,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -724,8 +760,11 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -744,6 +783,9 @@
       </c>
       <c r="H11" t="s">
         <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -754,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -765,9 +807,11 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -785,7 +829,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -803,7 +847,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -817,7 +861,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1">
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -845,8 +889,11 @@
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -859,8 +906,11 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -880,8 +930,11 @@
       <c r="H6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -900,6 +953,9 @@
       </c>
       <c r="H7" t="s">
         <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
